--- a/Pages_Items.xlsx
+++ b/Pages_Items.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20827"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D04B2C4B-4A2B-41B0-9788-01C68B7EEEAB}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="168" windowWidth="12048" windowHeight="5772" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="168" windowWidth="12048" windowHeight="5772" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Version" sheetId="1" r:id="rId1"/>
@@ -22,12 +23,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="C2" authorId="0">
+    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -51,7 +52,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C3" authorId="0">
+    <comment ref="C3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
       <text>
         <r>
           <rPr>
@@ -75,7 +76,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C7" authorId="0">
+    <comment ref="C7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
       <text>
         <r>
           <rPr>
@@ -99,7 +100,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H21" authorId="0">
+    <comment ref="H21" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000004000000}">
       <text>
         <r>
           <rPr>
@@ -128,7 +129,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="148">
   <si>
     <t>Ver. No</t>
   </si>
@@ -569,12 +570,15 @@
   </si>
   <si>
     <t>CFD Status</t>
+  </si>
+  <si>
+    <t>Calculators</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -830,9 +834,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -840,6 +841,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -872,7 +876,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -880,6 +884,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -928,7 +935,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -961,9 +968,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -996,6 +1020,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1171,7 +1212,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1214,11 +1255,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:U31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1247,7 +1288,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="29" t="s">
         <v>4</v>
       </c>
       <c r="B1" s="27"/>
@@ -1256,13 +1297,13 @@
       </c>
       <c r="D1" s="27"/>
       <c r="E1" s="26" t="s">
-        <v>16</v>
+        <v>147</v>
       </c>
       <c r="F1" s="27"/>
       <c r="G1" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="31"/>
+      <c r="H1" s="30"/>
       <c r="I1" s="27"/>
       <c r="J1" s="26" t="s">
         <v>80</v>
@@ -1287,7 +1328,7 @@
       <c r="T1" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="U1" s="28"/>
+      <c r="U1" s="31"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
@@ -1672,7 +1713,7 @@
       <c r="D13" s="14"/>
       <c r="E13" s="13"/>
       <c r="F13" s="14"/>
-      <c r="G13" s="29" t="s">
+      <c r="G13" s="28" t="s">
         <v>112</v>
       </c>
       <c r="H13" s="23" t="s">
@@ -1701,7 +1742,7 @@
       <c r="D14" s="14"/>
       <c r="E14" s="13"/>
       <c r="F14" s="14"/>
-      <c r="G14" s="29"/>
+      <c r="G14" s="28"/>
       <c r="H14" s="17" t="s">
         <v>128</v>
       </c>
@@ -1726,7 +1767,7 @@
       <c r="D15" s="14"/>
       <c r="E15" s="13"/>
       <c r="F15" s="14"/>
-      <c r="G15" s="29"/>
+      <c r="G15" s="28"/>
       <c r="H15" s="17" t="s">
         <v>124</v>
       </c>
@@ -2160,17 +2201,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="R1:S1"/>
     <mergeCell ref="J1:K1"/>
     <mergeCell ref="G13:G15"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="G1:I1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="T1:U1"/>
-    <mergeCell ref="R1:S1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2179,7 +2220,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2308,7 +2349,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2346,7 +2387,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2430,7 +2471,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2575,7 +2616,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2669,7 +2710,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2699,7 +2740,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/Pages_Items.xlsx
+++ b/Pages_Items.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21029"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D04B2C4B-4A2B-41B0-9788-01C68B7EEEAB}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6396D549-2B7B-4BA3-B7F4-37773270EC21}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="168" windowWidth="12048" windowHeight="5772" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -129,7 +129,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="146">
   <si>
     <t>Ver. No</t>
   </si>
@@ -420,12 +420,6 @@
   </si>
   <si>
     <t>forgot password</t>
-  </si>
-  <si>
-    <t>Top 10 player</t>
-  </si>
-  <si>
-    <t>Top 10 alliances</t>
   </si>
   <si>
     <t>Useful links</t>
@@ -793,7 +787,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -834,6 +828,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -843,9 +840,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -1259,7 +1254,7 @@
   <dimension ref="A1:U31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1288,7 +1283,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="7" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="30" t="s">
         <v>4</v>
       </c>
       <c r="B1" s="27"/>
@@ -1297,13 +1292,13 @@
       </c>
       <c r="D1" s="27"/>
       <c r="E1" s="26" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F1" s="27"/>
       <c r="G1" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="30"/>
+      <c r="H1" s="31"/>
       <c r="I1" s="27"/>
       <c r="J1" s="26" t="s">
         <v>80</v>
@@ -1328,7 +1323,7 @@
       <c r="T1" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="U1" s="31"/>
+      <c r="U1" s="28"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
@@ -1336,17 +1331,17 @@
       </c>
       <c r="B2" s="14"/>
       <c r="C2" s="25" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D2" s="24">
         <v>1</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F2" s="14"/>
       <c r="G2" s="13" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="H2" s="9"/>
       <c r="I2" s="14"/>
@@ -1363,7 +1358,7 @@
         <v>0.75</v>
       </c>
       <c r="N2" s="25" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="O2" s="24">
         <v>1</v>
@@ -1389,11 +1384,11 @@
         <v>1</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F3" s="14"/>
       <c r="G3" s="13" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H3" s="9"/>
       <c r="I3" s="14"/>
@@ -1423,22 +1418,22 @@
       <c r="U3" s="10"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A4" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="B4" s="14"/>
-      <c r="C4" s="13" t="s">
+      <c r="A4" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="B4" s="25"/>
+      <c r="C4" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="D4" s="22">
-        <v>0.1</v>
+      <c r="D4" s="24">
+        <v>1</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F4" s="14"/>
       <c r="G4" s="13" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="H4" s="9"/>
       <c r="I4" s="14"/>
@@ -1453,7 +1448,7 @@
         <v>1</v>
       </c>
       <c r="N4" s="25" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="O4" s="24">
         <v>1</v>
@@ -1466,9 +1461,7 @@
       <c r="U4" s="10"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A5" s="8" t="s">
-        <v>97</v>
-      </c>
+      <c r="A5" s="8"/>
       <c r="B5" s="14"/>
       <c r="C5" s="25" t="s">
         <v>52</v>
@@ -1477,14 +1470,14 @@
         <v>1</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F5" s="14"/>
       <c r="G5" s="13" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="I5" s="14"/>
       <c r="J5" s="25" t="s">
@@ -1496,7 +1489,7 @@
       <c r="L5" s="13"/>
       <c r="M5" s="14"/>
       <c r="N5" s="25" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="O5" s="24">
         <v>1</v>
@@ -1509,9 +1502,7 @@
       <c r="U5" s="10"/>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A6" s="8" t="s">
-        <v>98</v>
-      </c>
+      <c r="A6" s="8"/>
       <c r="B6" s="14"/>
       <c r="C6" s="25" t="s">
         <v>84</v>
@@ -1520,11 +1511,11 @@
         <v>1</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F6" s="14"/>
       <c r="H6" s="20" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="I6" s="14"/>
       <c r="J6" s="25" t="s">
@@ -1544,10 +1535,10 @@
       <c r="U6" s="10"/>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A7" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="B7" s="14"/>
+      <c r="A7" s="25" t="s">
+        <v>97</v>
+      </c>
+      <c r="B7" s="25"/>
       <c r="C7" s="25" t="s">
         <v>39</v>
       </c>
@@ -1555,11 +1546,11 @@
         <v>1</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F7" s="14"/>
       <c r="H7" s="20" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="I7" s="14"/>
       <c r="J7" s="13" t="s">
@@ -1587,10 +1578,10 @@
       </c>
       <c r="F8" s="14"/>
       <c r="G8" s="13" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="H8" s="21" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="I8" s="14"/>
       <c r="J8" s="13" t="s">
@@ -1615,7 +1606,7 @@
       <c r="D9" s="14"/>
       <c r="F9" s="14"/>
       <c r="H9" s="18" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="I9" s="14"/>
       <c r="J9" s="13"/>
@@ -1640,7 +1631,7 @@
       <c r="F10" s="14"/>
       <c r="G10" s="13"/>
       <c r="H10" s="18" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="I10" s="14"/>
       <c r="J10" s="13"/>
@@ -1665,7 +1656,7 @@
       <c r="F11" s="14"/>
       <c r="G11" s="13"/>
       <c r="H11" s="18" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="I11" s="14"/>
       <c r="J11" s="13"/>
@@ -1690,7 +1681,7 @@
       <c r="F12" s="14"/>
       <c r="G12" s="13"/>
       <c r="H12" s="18" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="I12" s="14"/>
       <c r="J12" s="13"/>
@@ -1713,11 +1704,11 @@
       <c r="D13" s="14"/>
       <c r="E13" s="13"/>
       <c r="F13" s="14"/>
-      <c r="G13" s="28" t="s">
-        <v>112</v>
+      <c r="G13" s="29" t="s">
+        <v>110</v>
       </c>
       <c r="H13" s="23" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="I13" s="24">
         <v>1</v>
@@ -1742,9 +1733,9 @@
       <c r="D14" s="14"/>
       <c r="E14" s="13"/>
       <c r="F14" s="14"/>
-      <c r="G14" s="28"/>
+      <c r="G14" s="29"/>
       <c r="H14" s="17" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="I14" s="14"/>
       <c r="J14" s="13"/>
@@ -1767,9 +1758,9 @@
       <c r="D15" s="14"/>
       <c r="E15" s="13"/>
       <c r="F15" s="14"/>
-      <c r="G15" s="28"/>
+      <c r="G15" s="29"/>
       <c r="H15" s="17" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="I15" s="14"/>
       <c r="J15" s="13"/>
@@ -1794,7 +1785,7 @@
       <c r="F16" s="14"/>
       <c r="G16" s="9"/>
       <c r="H16" s="18" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="I16" s="14"/>
       <c r="J16" s="13"/>
@@ -1819,7 +1810,7 @@
       <c r="F17" s="14"/>
       <c r="G17" s="9"/>
       <c r="H17" s="18" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I17" s="14"/>
       <c r="J17" s="13"/>
@@ -1843,7 +1834,7 @@
       <c r="E18" s="13"/>
       <c r="F18" s="14"/>
       <c r="H18" s="23" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="I18" s="24">
         <v>1</v>
@@ -1870,7 +1861,7 @@
       <c r="F19" s="14"/>
       <c r="G19" s="9"/>
       <c r="H19" s="23" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="I19" s="24">
         <v>1</v>
@@ -1897,7 +1888,7 @@
       <c r="F20" s="14"/>
       <c r="G20" s="13"/>
       <c r="H20" s="18" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="I20" s="22"/>
       <c r="J20" s="13"/>
@@ -1921,10 +1912,10 @@
       <c r="E21" s="13"/>
       <c r="F21" s="14"/>
       <c r="G21" s="13" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H21" s="17" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="I21" s="22">
         <v>0.8</v>
@@ -1951,7 +1942,7 @@
       <c r="F22" s="14"/>
       <c r="G22" s="9"/>
       <c r="H22" s="23" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="I22" s="24">
         <v>1</v>
@@ -1978,7 +1969,7 @@
       <c r="F23" s="14"/>
       <c r="G23" s="9"/>
       <c r="H23" s="23" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="I23" s="24">
         <v>1</v>
@@ -2004,10 +1995,10 @@
       <c r="E24" s="13"/>
       <c r="F24" s="14"/>
       <c r="G24" s="13" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="H24" s="17" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I24" s="14"/>
       <c r="J24" s="13"/>
@@ -2031,7 +2022,7 @@
       <c r="E25" s="13"/>
       <c r="F25" s="14"/>
       <c r="H25" s="18" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="I25" s="14"/>
       <c r="J25" s="13"/>
@@ -2056,7 +2047,7 @@
       <c r="F26" s="14"/>
       <c r="G26" s="9"/>
       <c r="H26" s="18" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="I26" s="14"/>
       <c r="J26" s="13"/>
@@ -2080,7 +2071,7 @@
       <c r="E27" s="13"/>
       <c r="F27" s="14"/>
       <c r="H27" s="18" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="I27" s="14"/>
       <c r="J27" s="13"/>
@@ -2104,10 +2095,10 @@
       <c r="E28" s="13"/>
       <c r="F28" s="14"/>
       <c r="G28" s="19" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H28" s="18" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="I28" s="14"/>
       <c r="J28" s="13"/>
@@ -2132,7 +2123,7 @@
       <c r="F29" s="14"/>
       <c r="G29" s="9"/>
       <c r="H29" s="23" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="I29" s="24">
         <v>1</v>
@@ -2159,7 +2150,7 @@
       <c r="F30" s="14"/>
       <c r="G30" s="9"/>
       <c r="H30" s="18" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="I30" s="14"/>
       <c r="J30" s="13"/>
@@ -2183,7 +2174,7 @@
       <c r="E31" s="16"/>
       <c r="F31" s="15"/>
       <c r="H31" s="18" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="I31" s="14"/>
       <c r="J31" s="16"/>
@@ -2201,17 +2192,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="T1:U1"/>
-    <mergeCell ref="R1:S1"/>
     <mergeCell ref="J1:K1"/>
     <mergeCell ref="G13:G15"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="G1:I1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="R1:S1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
